--- a/Server/WorkOrderExcelLogs/333.xlsx
+++ b/Server/WorkOrderExcelLogs/333.xlsx
@@ -9,7 +9,6 @@
   <s:sheets>
     <s:sheet name="Work Order Sumary" sheetId="1" r:id="rId1"/>
     <s:sheet name="Run#1" sheetId="2" r:id="rId2"/>
-    <s:sheet name="Run#11" sheetId="3" r:id="rId3"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
@@ -17,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
-  <si>
-    <t>(04/09/14) @ 21:36:17</t>
-  </si>
-  <si>
-    <t>(04/09/14) @ 21:36:25</t>
-  </si>
-  <si>
-    <t>--------</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+  <si>
+    <t>(04/10/14) @ 14:43:08</t>
+  </si>
+  <si>
+    <t>------------</t>
   </si>
   <si>
     <t>----Line Leader(s)----</t>
@@ -43,22 +39,19 @@
     <t>---Down Time----</t>
   </si>
   <si>
-    <t xml:space="preserve">666:  (21:17:58,21:36:21) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">666:  (21:17:58,21:36:28) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">66:  (21:18:27,21:36:21) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">66:  (21:18:27,21:36:28) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">858:  (21:18:03,21:36:21) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">858:  (21:18:03,21:36:28) </t>
+    <t xml:space="preserve">3333:  (14:43:14,14:43:17)  (14:43:21,14:43:33) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">333:  (14:42:46,14:43:33) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">666:  (21:17:58,14:43:33) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">66:  (21:18:27,14:43:33) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">858:  (21:18:03,14:43:33) </t>
   </si>
   <si>
     <t xml:space="preserve">Box Count: </t>
@@ -474,7 +467,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,17 +475,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="9.1"/>
-    <col customWidth="1" max="2" min="2" width="9.1"/>
-    <col customWidth="1" max="3" min="3" width="9.1"/>
-    <col customWidth="1" max="4" min="4" width="9.1"/>
-    <col customWidth="1" max="5" min="5" width="9.1"/>
-    <col customWidth="1" max="6" min="6" width="9.1"/>
+    <col max="1" min="1" width="9.10"/>
+    <col max="2" min="2" width="9.10"/>
+    <col max="3" min="3" width="9.10"/>
+    <col max="4" min="4" width="9.10"/>
+    <col max="5" min="5" width="9.10"/>
+    <col max="6" min="6" width="9.10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" t="n">
         <v>333</v>
@@ -500,42 +493,42 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -546,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -555,26 +548,6 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -587,165 +560,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="9.1"/>
-    <col customWidth="1" max="2" min="2" width="9.1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -758,95 +573,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>21</v>
+      <c r="A1" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B1" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>27</v>
+      <c r="A2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>19</v>
+      <c r="A3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>30</v>
+      <c r="A4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>31</v>
+      <c r="A5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>14</v>
+      <c r="A6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>15</v>
+      <c r="A7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>18</v>
+      <c r="A8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>23</v>
+      <c r="A9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -854,24 +669,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -881,17 +701,22 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
